--- a/resources/fg_controller_area_network.xlsx
+++ b/resources/fg_controller_area_network.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="699">
   <si>
     <t xml:space="preserve">0x128</t>
   </si>
@@ -1641,7 +1641,7 @@
     <t xml:space="preserve">[0] = 0x02</t>
   </si>
   <si>
-    <t xml:space="preserve">01 FF 00 00 00 00 00 00</t>
+    <t xml:space="preserve">0x01 FF 00 00 00 00 00 00</t>
   </si>
   <si>
     <t xml:space="preserve">[0] = 0x01, [1] = 0xFF</t>
@@ -1656,28 +1656,28 @@
     <t xml:space="preserve">0xFF</t>
   </si>
   <si>
-    <t xml:space="preserve">02 0C AE 00 00 00 00 00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0x01  0xFF  0x00  0x00  0x00  0x00  0x00  0x00</t>
+    <t xml:space="preserve">0x02 0C AE 00 00 00 00 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x01  FF 00 00 00 00  00 00</t>
   </si>
   <si>
     <t xml:space="preserve">[0] = 0x01</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0x02  0xFF  0x00  0x00  0x00  0x00  0x00  0x00</t>
+    <t xml:space="preserve"> 0x02  FF 00 00 00 00 00 00</t>
   </si>
   <si>
     <t xml:space="preserve">LightsOn</t>
   </si>
   <si>
-    <t xml:space="preserve">0x06  0xFF  0x00  0x00  0x00  0x00  0x00  0x00</t>
+    <t xml:space="preserve">0x06  FF 00 00 00 00 00 00</t>
   </si>
   <si>
     <t xml:space="preserve">FogLampOn</t>
   </si>
   <si>
-    <t xml:space="preserve">0x0E  0xFF  0x00  0x00  0x00  0x00  0x00  0x00</t>
+    <t xml:space="preserve">0x0E FF 00 00 00 00 00 00</t>
   </si>
   <si>
     <t xml:space="preserve">[0] = 0x0E</t>
@@ -1686,7 +1686,7 @@
     <t xml:space="preserve">High Beams on</t>
   </si>
   <si>
-    <t xml:space="preserve">0x00  0xFF  0x00  0x08  0x00  0x00  0x00  0x00</t>
+    <t xml:space="preserve">0x00  FF 00 0x08  00  00 00 00</t>
   </si>
   <si>
     <t xml:space="preserve">[3] = 0xFF</t>
@@ -1695,7 +1695,7 @@
     <t xml:space="preserve">Left Indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">0x00  0xFF  0x00  0x10  0x00  0x00  0x00  0x00</t>
+    <t xml:space="preserve">0x00  FF  00  0x10 00  00 00  00</t>
   </si>
   <si>
     <t xml:space="preserve">[3] = 0x10</t>
@@ -1719,7 +1719,13 @@
     <t xml:space="preserve">0x2D2</t>
   </si>
   <si>
-    <t xml:space="preserve">04 E3 00 00 00 00 00 00</t>
+    <t xml:space="preserve">0x00 00 00 0x10 0x10 00 00 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00 00 00 00 00 00 00 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x04 E3 00 00 00 00 00 00</t>
   </si>
   <si>
     <t xml:space="preserve">0x2E6</t>
@@ -2755,11 +2761,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="2" xfId="41" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="2" xfId="41" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6961,8 +6967,8 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D108" activeCellId="0" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7407,7 +7413,7 @@
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
     </row>
-    <row r="11" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="n">
         <v>296</v>
       </c>
@@ -7426,8 +7432,8 @@
       <c r="H11" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>522</v>
+      <c r="I11" s="29" t="s">
+        <v>433</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>532</v>
@@ -7475,7 +7481,9 @@
       <c r="H12" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="29" t="s">
+        <v>433</v>
+      </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
@@ -7512,7 +7520,9 @@
       <c r="H13" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="29" t="s">
+        <v>433</v>
+      </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
@@ -7549,7 +7559,9 @@
       <c r="H14" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="29" t="s">
+        <v>433</v>
+      </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
@@ -7586,7 +7598,9 @@
       <c r="H15" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="29" t="s">
+        <v>433</v>
+      </c>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
@@ -7623,7 +7637,9 @@
       <c r="H16" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="29" t="s">
+        <v>433</v>
+      </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
@@ -7660,7 +7676,9 @@
       <c r="H17" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="29" t="s">
+        <v>433</v>
+      </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
@@ -7676,42 +7694,49 @@
       <c r="V17" s="23"/>
       <c r="W17" s="23"/>
     </row>
-    <row r="18" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-    </row>
-    <row r="19" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+    <row r="18" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29" t="n">
+        <v>816</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="n">
+        <v>832</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>133</v>
+      </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="G19" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>532</v>
+      </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
@@ -7721,72 +7746,104 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-    </row>
-    <row r="20" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-    </row>
-    <row r="21" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-    </row>
-    <row r="22" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+    </row>
+    <row r="20" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="29" t="n">
+        <v>1832</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+    </row>
+    <row r="21" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="33" t="n">
+        <v>722</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+    </row>
+    <row r="22" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="22" t="n">
+        <v>724</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>532</v>
+      </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
@@ -7796,22 +7853,42 @@
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-    </row>
-    <row r="23" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+    </row>
+    <row r="23" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="22" t="n">
+        <v>724</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>532</v>
+      </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
@@ -7821,72 +7898,110 @@
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-    </row>
-    <row r="24" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-    </row>
-    <row r="25" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-    </row>
-    <row r="26" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+    </row>
+    <row r="24" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="29" t="n">
+        <v>724</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+    </row>
+    <row r="25" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="29" t="n">
+        <v>724</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+    </row>
+    <row r="26" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22" t="n">
+        <v>738</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>533</v>
+      </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="I26" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>532</v>
+      </c>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
@@ -7896,1173 +8011,1272 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-    </row>
-    <row r="27" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-    </row>
-    <row r="28" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-    </row>
-    <row r="29" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="n">
-        <v>816</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>558</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="J29" s="30" t="s">
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+    </row>
+    <row r="27" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="29" t="n">
+        <v>738</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="J27" s="29" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="30" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="n">
-        <v>832</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>559</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="J30" s="22" t="s">
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+    </row>
+    <row r="28" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="29" t="n">
+        <v>738</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="J28" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-    </row>
-    <row r="31" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30" t="n">
-        <v>1832</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="J31" s="30" t="s">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+    </row>
+    <row r="29" s="40" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="39" t="n">
+        <v>742</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="J29" s="39" t="s">
         <v>532</v>
       </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-    </row>
-    <row r="32" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="33" t="n">
-        <v>722</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>562</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33" t="s">
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+    </row>
+    <row r="30" s="40" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="39" t="n">
+        <v>742</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="I30" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="J30" s="39" t="s">
         <v>532</v>
       </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-    </row>
-    <row r="33" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="n">
-        <v>724</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="28" t="s">
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+    </row>
+    <row r="31" s="40" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="39" t="n">
+        <v>742</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>533</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="22" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="I31" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="J31" s="39" t="s">
         <v>532</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-    </row>
-    <row r="34" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="n">
-        <v>724</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="28" t="s">
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+    </row>
+    <row r="32" s="40" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="39" t="n">
+        <v>742</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="C32" s="39" t="s">
         <v>533</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="22" t="s">
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="I32" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="J34" s="22" t="s">
+      <c r="J32" s="39" t="s">
         <v>532</v>
       </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-    </row>
-    <row r="35" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="30" t="n">
-        <v>724</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="30" t="s">
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+    </row>
+    <row r="33" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="41" t="n">
+        <v>748</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30" t="s">
+      <c r="D33" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>573</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>574</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>575</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+    </row>
+    <row r="34" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="41" t="n">
+        <v>748</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>576</v>
+      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J34" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-    </row>
-    <row r="36" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30" t="n">
-        <v>724</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="30" t="s">
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="41"/>
+    </row>
+    <row r="35" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="45" t="n">
+        <v>751</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30" t="s">
+      <c r="D35" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="J36" s="30" t="s">
+      <c r="J35" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-    </row>
-    <row r="37" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="n">
-        <v>738</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="22" t="s">
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+    </row>
+    <row r="36" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="48" t="n">
+        <v>754</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="49" t="s">
         <v>533</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22" t="s">
+      <c r="D36" s="49" t="s">
+        <v>578</v>
+      </c>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="48" t="s">
         <v>522</v>
       </c>
-      <c r="J37" s="22" t="s">
+      <c r="J36" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-    </row>
-    <row r="38" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30" t="n">
-        <v>738</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="37" t="s">
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="48"/>
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="48"/>
+      <c r="AE36" s="48"/>
+    </row>
+    <row r="37" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="48" t="n">
+        <v>754</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="48" t="s">
         <v>533</v>
       </c>
-      <c r="D38" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="30" t="s">
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="H37" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="I37" s="48" t="s">
         <v>522</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J37" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="30"/>
-    </row>
-    <row r="39" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30" t="n">
-        <v>738</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="37" t="s">
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+    </row>
+    <row r="38" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="48" t="n">
+        <v>754</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="48" t="s">
         <v>533</v>
       </c>
-      <c r="D39" s="37" t="s">
-        <v>563</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="30" t="s">
+      <c r="D38" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>581</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>582</v>
+      </c>
+      <c r="I38" s="48" t="s">
         <v>522</v>
       </c>
-      <c r="J39" s="30" t="s">
+      <c r="J38" s="48" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="39" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="48" t="n">
+        <v>754</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>533</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="I39" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="40" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="48" t="n">
+        <v>754</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>533</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>587</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>588</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>589</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="41" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="48" t="n">
+        <v>754</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>533</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>590</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>591</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>592</v>
+      </c>
+      <c r="I41" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="42" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="48" t="n">
+        <v>754</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>533</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>593</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>594</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>574</v>
+      </c>
+      <c r="I42" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="J42" s="48" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="43" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="52" t="n">
+        <v>756</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>533</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>595</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="I43" s="52" t="s">
+        <v>522</v>
+      </c>
+      <c r="J43" s="52" t="s">
         <v>532</v>
       </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="30"/>
-      <c r="AE39" s="30"/>
-    </row>
-    <row r="40" s="40" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="39" t="n">
-        <v>742</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>564</v>
-      </c>
-      <c r="C40" s="39" t="s">
+    </row>
+    <row r="44" s="57" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="55" t="n">
+        <v>756</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52" t="s">
+        <v>522</v>
+      </c>
+      <c r="J44" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="52"/>
+      <c r="AD44" s="52"/>
+      <c r="AE44" s="52"/>
+    </row>
+    <row r="45" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="58" t="n">
+        <v>761</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>597</v>
+      </c>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61" t="s">
+        <v>567</v>
+      </c>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60" t="s">
+        <v>522</v>
+      </c>
+      <c r="J45" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="60"/>
+      <c r="W45" s="60"/>
+      <c r="X45" s="60"/>
+      <c r="Y45" s="60"/>
+      <c r="Z45" s="60"/>
+      <c r="AA45" s="60"/>
+      <c r="AB45" s="60"/>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="60"/>
+      <c r="AE45" s="60"/>
+    </row>
+    <row r="46" s="63" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="58" t="n">
+        <v>761</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60" t="s">
+        <v>567</v>
+      </c>
+      <c r="H46" s="60" t="s">
+        <v>598</v>
+      </c>
+      <c r="I46" s="60" t="s">
+        <v>522</v>
+      </c>
+      <c r="J46" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="60"/>
+    </row>
+    <row r="47" s="63" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="58" t="n">
+        <v>761</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60" t="s">
+        <v>567</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>599</v>
+      </c>
+      <c r="I47" s="60" t="s">
+        <v>522</v>
+      </c>
+      <c r="J47" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="60"/>
+    </row>
+    <row r="48" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="64" t="n">
+        <v>764</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39" t="s">
-        <v>565</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>566</v>
-      </c>
-      <c r="I40" s="39" t="s">
+      <c r="D48" s="65" t="s">
+        <v>600</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65" t="s">
+        <v>567</v>
+      </c>
+      <c r="H48" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="J40" s="39" t="s">
+      <c r="J48" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-    </row>
-    <row r="41" s="40" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="39" t="n">
-        <v>742</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>564</v>
-      </c>
-      <c r="C41" s="39" t="s">
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="64"/>
+      <c r="T48" s="64"/>
+      <c r="U48" s="64"/>
+      <c r="V48" s="64"/>
+      <c r="W48" s="64"/>
+    </row>
+    <row r="49" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="64" t="n">
+        <v>764</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39" t="s">
-        <v>565</v>
-      </c>
-      <c r="H41" s="39" t="s">
+      <c r="D49" s="65" t="s">
+        <v>601</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65" t="s">
         <v>567</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="H49" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="J41" s="39" t="s">
+      <c r="J49" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-    </row>
-    <row r="42" s="40" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="39" t="n">
-        <v>742</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>564</v>
-      </c>
-      <c r="C42" s="39" t="s">
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="64"/>
+      <c r="T49" s="64"/>
+      <c r="U49" s="64"/>
+      <c r="V49" s="64"/>
+      <c r="W49" s="64"/>
+    </row>
+    <row r="50" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="64" t="n">
+        <v>764</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39" t="s">
-        <v>565</v>
-      </c>
-      <c r="H42" s="39" t="s">
-        <v>568</v>
-      </c>
-      <c r="I42" s="39" t="s">
+      <c r="D50" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="E50" s="65" t="s">
+        <v>604</v>
+      </c>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65" t="s">
+        <v>567</v>
+      </c>
+      <c r="H50" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="J42" s="39" t="s">
+      <c r="J50" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-    </row>
-    <row r="43" s="40" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="39" t="n">
-        <v>742</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>564</v>
-      </c>
-      <c r="C43" s="39" t="s">
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="64"/>
+      <c r="T50" s="64"/>
+      <c r="U50" s="64"/>
+      <c r="V50" s="64"/>
+      <c r="W50" s="64"/>
+    </row>
+    <row r="51" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="64" t="n">
+        <v>764</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39" t="s">
-        <v>565</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>569</v>
-      </c>
-      <c r="I43" s="39" t="s">
+      <c r="D51" s="65" t="s">
+        <v>605</v>
+      </c>
+      <c r="E51" s="65" t="s">
+        <v>606</v>
+      </c>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65" t="s">
+        <v>567</v>
+      </c>
+      <c r="H51" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="J43" s="39" t="s">
+      <c r="J51" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="39"/>
-    </row>
-    <row r="44" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="41" t="n">
-        <v>748</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="41" t="s">
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
+      <c r="T51" s="64"/>
+      <c r="U51" s="64"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+    </row>
+    <row r="52" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="64" t="n">
+        <v>764</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="D44" s="41" t="s">
-        <v>570</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>571</v>
-      </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41" t="s">
-        <v>565</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="I44" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="J44" s="41" t="s">
+      <c r="D52" s="65" t="s">
+        <v>607</v>
+      </c>
+      <c r="E52" s="65" t="s">
+        <v>608</v>
+      </c>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65" t="s">
+        <v>567</v>
+      </c>
+      <c r="H52" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="J52" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="41"/>
-    </row>
-    <row r="45" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="41" t="n">
-        <v>748</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="43" t="s">
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="64"/>
+      <c r="T52" s="64"/>
+      <c r="U52" s="64"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
+    </row>
+    <row r="53" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="64" t="n">
+        <v>764</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="D45" s="43" t="s">
-        <v>574</v>
-      </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="41" t="s">
+      <c r="D53" s="65" t="s">
+        <v>609</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>610</v>
+      </c>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65" t="s">
+        <v>567</v>
+      </c>
+      <c r="H53" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="J45" s="41" t="s">
+      <c r="J53" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="41"/>
-      <c r="U45" s="41"/>
-      <c r="V45" s="41"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="41"/>
-      <c r="Z45" s="41"/>
-      <c r="AA45" s="41"/>
-      <c r="AB45" s="41"/>
-      <c r="AC45" s="41"/>
-      <c r="AD45" s="41"/>
-      <c r="AE45" s="41"/>
-    </row>
-    <row r="46" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="45" t="n">
-        <v>751</v>
-      </c>
-      <c r="B46" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="46" t="s">
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
+      <c r="T53" s="64"/>
+      <c r="U53" s="64"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="64"/>
+    </row>
+    <row r="54" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="64" t="n">
+        <v>764</v>
+      </c>
+      <c r="B54" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="D46" s="46" t="s">
-        <v>575</v>
-      </c>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="45" t="s">
+      <c r="D54" s="65" t="s">
+        <v>611</v>
+      </c>
+      <c r="E54" s="65" t="s">
+        <v>612</v>
+      </c>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65" t="s">
+        <v>567</v>
+      </c>
+      <c r="H54" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="J46" s="45" t="s">
+      <c r="J54" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="45"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="45"/>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="45"/>
-      <c r="AD46" s="45"/>
-      <c r="AE46" s="45"/>
-    </row>
-    <row r="47" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="48" t="n">
-        <v>754</v>
-      </c>
-      <c r="B47" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="49" t="s">
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="64"/>
+      <c r="S54" s="64"/>
+      <c r="T54" s="64"/>
+      <c r="U54" s="64"/>
+      <c r="V54" s="64"/>
+      <c r="W54" s="64"/>
+    </row>
+    <row r="55" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="64" t="n">
+        <v>764</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="D47" s="49" t="s">
-        <v>576</v>
-      </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="48" t="s">
+      <c r="D55" s="65" t="s">
+        <v>613</v>
+      </c>
+      <c r="E55" s="65" t="s">
+        <v>614</v>
+      </c>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65" t="s">
+        <v>567</v>
+      </c>
+      <c r="H55" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="J47" s="48" t="s">
+      <c r="J55" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="48"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="48"/>
-      <c r="Z47" s="48"/>
-      <c r="AA47" s="48"/>
-      <c r="AB47" s="48"/>
-      <c r="AC47" s="48"/>
-      <c r="AD47" s="48"/>
-      <c r="AE47" s="48"/>
-    </row>
-    <row r="48" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="48" t="n">
-        <v>754</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="48" t="s">
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
+      <c r="S55" s="64"/>
+      <c r="T55" s="64"/>
+      <c r="U55" s="64"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="64"/>
+    </row>
+    <row r="56" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="64" t="n">
+        <v>764</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48" t="s">
-        <v>565</v>
-      </c>
-      <c r="H48" s="48" t="s">
-        <v>577</v>
-      </c>
-      <c r="I48" s="48" t="s">
+      <c r="D56" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="E56" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65" t="s">
+        <v>567</v>
+      </c>
+      <c r="H56" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="J48" s="48" t="s">
+      <c r="J56" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="48"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="48"/>
-      <c r="W48" s="48"/>
-    </row>
-    <row r="49" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="48" t="n">
-        <v>754</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="48" t="s">
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="64"/>
+      <c r="S56" s="64"/>
+      <c r="T56" s="64"/>
+      <c r="U56" s="64"/>
+      <c r="V56" s="64"/>
+      <c r="W56" s="64"/>
+    </row>
+    <row r="57" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="64" t="n">
+        <v>764</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="D49" s="48" t="s">
-        <v>578</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>579</v>
-      </c>
-      <c r="G49" s="48" t="s">
-        <v>565</v>
-      </c>
-      <c r="H49" s="48" t="s">
-        <v>580</v>
-      </c>
-      <c r="I49" s="48" t="s">
+      <c r="D57" s="65" t="s">
+        <v>617</v>
+      </c>
+      <c r="E57" s="65" t="s">
+        <v>618</v>
+      </c>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65" t="s">
+        <v>567</v>
+      </c>
+      <c r="H57" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="J49" s="48" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="50" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="48" t="n">
-        <v>754</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="48" t="s">
+      <c r="J57" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
+      <c r="S57" s="64"/>
+      <c r="T57" s="64"/>
+      <c r="U57" s="64"/>
+      <c r="V57" s="64"/>
+      <c r="W57" s="64"/>
+    </row>
+    <row r="58" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="64" t="n">
+        <v>764</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="D50" s="48" t="s">
-        <v>582</v>
-      </c>
-      <c r="E50" s="48" t="s">
-        <v>583</v>
-      </c>
-      <c r="G50" s="48" t="s">
-        <v>565</v>
-      </c>
-      <c r="H50" s="48" t="s">
-        <v>584</v>
-      </c>
-      <c r="I50" s="48" t="s">
+      <c r="D58" s="65" t="s">
+        <v>619</v>
+      </c>
+      <c r="E58" s="65" t="s">
+        <v>620</v>
+      </c>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65" t="s">
+        <v>567</v>
+      </c>
+      <c r="H58" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="J50" s="48" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="51" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="48" t="n">
-        <v>754</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>533</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>585</v>
-      </c>
-      <c r="E51" s="48" t="s">
-        <v>586</v>
-      </c>
-      <c r="G51" s="48" t="s">
-        <v>565</v>
-      </c>
-      <c r="H51" s="48" t="s">
-        <v>587</v>
-      </c>
-      <c r="I51" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="J51" s="48" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="52" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="48" t="n">
-        <v>754</v>
-      </c>
-      <c r="B52" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>533</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>588</v>
-      </c>
-      <c r="E52" s="48" t="s">
-        <v>589</v>
-      </c>
-      <c r="G52" s="48" t="s">
-        <v>565</v>
-      </c>
-      <c r="H52" s="48" t="s">
-        <v>590</v>
-      </c>
-      <c r="I52" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="J52" s="48" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="53" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="48" t="n">
-        <v>754</v>
-      </c>
-      <c r="B53" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="48" t="s">
-        <v>533</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>591</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>592</v>
-      </c>
-      <c r="G53" s="48" t="s">
-        <v>565</v>
-      </c>
-      <c r="H53" s="48" t="s">
-        <v>572</v>
-      </c>
-      <c r="I53" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="J53" s="48" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="54" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="52" t="n">
-        <v>756</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>533</v>
-      </c>
-      <c r="D54" s="54" t="s">
-        <v>593</v>
-      </c>
-      <c r="G54" s="54" t="s">
-        <v>565</v>
-      </c>
-      <c r="I54" s="52" t="s">
-        <v>522</v>
-      </c>
-      <c r="J54" s="52" t="s">
+      <c r="J58" s="64" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="55" s="57" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="55" t="n">
-        <v>756</v>
-      </c>
-      <c r="B55" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="54" t="s">
-        <v>565</v>
-      </c>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52" t="s">
-        <v>522</v>
-      </c>
-      <c r="J55" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52"/>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
-      <c r="AC55" s="52"/>
-      <c r="AD55" s="52"/>
-      <c r="AE55" s="52"/>
-    </row>
-    <row r="56" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="58" t="n">
-        <v>761</v>
-      </c>
-      <c r="B56" s="59" t="s">
-        <v>595</v>
-      </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60" t="s">
-        <v>522</v>
-      </c>
-      <c r="J56" s="60" t="s">
-        <v>532</v>
-      </c>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="60"/>
-      <c r="Q56" s="60"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="60"/>
-      <c r="T56" s="60"/>
-      <c r="U56" s="60"/>
-      <c r="V56" s="60"/>
-      <c r="W56" s="60"/>
-      <c r="X56" s="60"/>
-      <c r="Y56" s="60"/>
-      <c r="Z56" s="60"/>
-      <c r="AA56" s="60"/>
-      <c r="AB56" s="60"/>
-      <c r="AC56" s="60"/>
-      <c r="AD56" s="60"/>
-      <c r="AE56" s="60"/>
-    </row>
-    <row r="57" s="63" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="58" t="n">
-        <v>761</v>
-      </c>
-      <c r="B57" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60" t="s">
-        <v>565</v>
-      </c>
-      <c r="H57" s="60" t="s">
-        <v>596</v>
-      </c>
-      <c r="I57" s="60" t="s">
-        <v>522</v>
-      </c>
-      <c r="J57" s="60" t="s">
-        <v>532</v>
-      </c>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="60"/>
-      <c r="R57" s="60"/>
-      <c r="S57" s="60"/>
-      <c r="T57" s="60"/>
-      <c r="U57" s="60"/>
-      <c r="V57" s="60"/>
-      <c r="W57" s="60"/>
-    </row>
-    <row r="58" s="63" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="58" t="n">
-        <v>761</v>
-      </c>
-      <c r="B58" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60" t="s">
-        <v>565</v>
-      </c>
-      <c r="H58" s="60" t="s">
-        <v>597</v>
-      </c>
-      <c r="I58" s="60" t="s">
-        <v>522</v>
-      </c>
-      <c r="J58" s="60" t="s">
-        <v>532</v>
-      </c>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="60"/>
-      <c r="Q58" s="60"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="60"/>
-      <c r="T58" s="60"/>
-      <c r="U58" s="60"/>
-      <c r="V58" s="60"/>
-      <c r="W58" s="60"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="T58" s="64"/>
+      <c r="U58" s="64"/>
+      <c r="V58" s="64"/>
+      <c r="W58" s="64"/>
     </row>
     <row r="59" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="64" t="n">
@@ -9075,15 +9289,17 @@
         <v>533</v>
       </c>
       <c r="D59" s="65" t="s">
-        <v>598</v>
-      </c>
-      <c r="E59" s="65"/>
+        <v>621</v>
+      </c>
+      <c r="E59" s="65" t="s">
+        <v>622</v>
+      </c>
       <c r="F59" s="65"/>
       <c r="G59" s="65" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H59" s="65" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I59" s="64" t="s">
         <v>522</v>
@@ -9116,17 +9332,17 @@
         <v>533</v>
       </c>
       <c r="D60" s="65" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="E60" s="65" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="F60" s="65"/>
       <c r="G60" s="65" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H60" s="65" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I60" s="64" t="s">
         <v>522</v>
@@ -9159,17 +9375,17 @@
         <v>533</v>
       </c>
       <c r="D61" s="65" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="E61" s="65" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="F61" s="65"/>
       <c r="G61" s="65" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H61" s="65" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I61" s="64" t="s">
         <v>522</v>
@@ -9202,17 +9418,17 @@
         <v>533</v>
       </c>
       <c r="D62" s="65" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="E62" s="65" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="F62" s="65"/>
       <c r="G62" s="65" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H62" s="65" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I62" s="64" t="s">
         <v>522</v>
@@ -9234,500 +9450,346 @@
       <c r="V62" s="64"/>
       <c r="W62" s="64"/>
     </row>
-    <row r="63" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="64" t="n">
-        <v>764</v>
-      </c>
-      <c r="B63" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="65" t="s">
+    <row r="63" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="67" t="n">
+        <v>775</v>
+      </c>
+      <c r="B63" s="67" t="s">
+        <v>629</v>
+      </c>
+      <c r="C63" s="67" t="s">
         <v>533</v>
       </c>
-      <c r="D63" s="65" t="s">
-        <v>605</v>
-      </c>
-      <c r="E63" s="65" t="s">
+      <c r="D63" s="67" t="s">
+        <v>630</v>
+      </c>
+      <c r="E63" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="G63" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="H63" s="67" t="s">
+        <v>633</v>
+      </c>
+      <c r="I63" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="J63" s="67" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="64" s="68" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="68" t="n">
+        <v>775</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="69" t="s">
+        <v>533</v>
+      </c>
+      <c r="D64" s="69" t="s">
+        <v>634</v>
+      </c>
+      <c r="E64" s="69" t="s">
+        <v>635</v>
+      </c>
+      <c r="G64" s="68" t="s">
+        <v>632</v>
+      </c>
+      <c r="H64" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="I64" s="68" t="s">
+        <v>522</v>
+      </c>
+      <c r="J64" s="67" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="65" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="67" t="n">
+        <v>775</v>
+      </c>
+      <c r="B65" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="D65" s="70" t="s">
+        <v>636</v>
+      </c>
+      <c r="E65" s="70" t="s">
+        <v>637</v>
+      </c>
+      <c r="G65" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="H65" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="J65" s="67" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="66" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="67" t="n">
+        <v>775</v>
+      </c>
+      <c r="B66" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="D66" s="70" t="s">
+        <v>638</v>
+      </c>
+      <c r="E66" s="70" t="s">
+        <v>639</v>
+      </c>
+      <c r="G66" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="H66" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="I66" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="J66" s="67" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="67" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="67" t="n">
+        <v>775</v>
+      </c>
+      <c r="B67" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="D67" s="70" t="s">
+        <v>640</v>
+      </c>
+      <c r="E67" s="70" t="s">
         <v>606</v>
       </c>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="H63" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="I63" s="64" t="s">
+      <c r="G67" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="H67" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="I67" s="67" t="s">
         <v>522</v>
       </c>
-      <c r="J63" s="64" t="s">
+      <c r="J67" s="67" t="s">
         <v>532</v>
       </c>
-      <c r="K63" s="64"/>
-      <c r="L63" s="64"/>
-      <c r="M63" s="64"/>
-      <c r="N63" s="64"/>
-      <c r="O63" s="64"/>
-      <c r="P63" s="64"/>
-      <c r="Q63" s="64"/>
-      <c r="R63" s="64"/>
-      <c r="S63" s="64"/>
-      <c r="T63" s="64"/>
-      <c r="U63" s="64"/>
-      <c r="V63" s="64"/>
-      <c r="W63" s="64"/>
-    </row>
-    <row r="64" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="64" t="n">
-        <v>764</v>
-      </c>
-      <c r="B64" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="65" t="s">
+    </row>
+    <row r="68" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="67" t="n">
+        <v>775</v>
+      </c>
+      <c r="B68" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="70" t="s">
         <v>533</v>
       </c>
-      <c r="D64" s="65" t="s">
-        <v>607</v>
-      </c>
-      <c r="E64" s="65" t="s">
+      <c r="D68" s="70" t="s">
+        <v>641</v>
+      </c>
+      <c r="E68" s="70" t="s">
+        <v>642</v>
+      </c>
+      <c r="G68" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="H68" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="I68" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="J68" s="67" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="69" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="67" t="n">
+        <v>775</v>
+      </c>
+      <c r="B69" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="D69" s="70" t="s">
+        <v>643</v>
+      </c>
+      <c r="E69" s="70" t="s">
         <v>608</v>
       </c>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="H64" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="I64" s="64" t="s">
+      <c r="G69" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="H69" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="I69" s="67" t="s">
         <v>522</v>
       </c>
-      <c r="J64" s="64" t="s">
+      <c r="J69" s="67" t="s">
         <v>532</v>
       </c>
-      <c r="K64" s="64"/>
-      <c r="L64" s="64"/>
-      <c r="M64" s="64"/>
-      <c r="N64" s="64"/>
-      <c r="O64" s="64"/>
-      <c r="P64" s="64"/>
-      <c r="Q64" s="64"/>
-      <c r="R64" s="64"/>
-      <c r="S64" s="64"/>
-      <c r="T64" s="64"/>
-      <c r="U64" s="64"/>
-      <c r="V64" s="64"/>
-      <c r="W64" s="64"/>
-    </row>
-    <row r="65" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="64" t="n">
-        <v>764</v>
-      </c>
-      <c r="B65" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="65" t="s">
+    </row>
+    <row r="70" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="67" t="n">
+        <v>775</v>
+      </c>
+      <c r="B70" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="70" t="s">
         <v>533</v>
       </c>
-      <c r="D65" s="65" t="s">
-        <v>609</v>
-      </c>
-      <c r="E65" s="65" t="s">
+      <c r="D70" s="70" t="s">
+        <v>644</v>
+      </c>
+      <c r="E70" s="70" t="s">
+        <v>645</v>
+      </c>
+      <c r="G70" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="H70" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="I70" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="J70" s="67" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="71" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="67" t="n">
+        <v>775</v>
+      </c>
+      <c r="B71" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="D71" s="70" t="s">
+        <v>646</v>
+      </c>
+      <c r="E71" s="70" t="s">
+        <v>536</v>
+      </c>
+      <c r="G71" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="H71" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="I71" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="J71" s="67" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="72" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="67" t="n">
+        <v>775</v>
+      </c>
+      <c r="B72" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="D72" s="70" t="s">
+        <v>647</v>
+      </c>
+      <c r="E72" s="70" t="s">
+        <v>648</v>
+      </c>
+      <c r="G72" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="H72" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="J72" s="67" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="73" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="67" t="n">
+        <v>775</v>
+      </c>
+      <c r="B73" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="D73" s="70" t="s">
+        <v>649</v>
+      </c>
+      <c r="E73" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="H65" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="I65" s="64" t="s">
+      <c r="G73" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="H73" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I73" s="67" t="s">
         <v>522</v>
       </c>
-      <c r="J65" s="64" t="s">
+      <c r="J73" s="67" t="s">
         <v>532</v>
       </c>
-      <c r="K65" s="64"/>
-      <c r="L65" s="64"/>
-      <c r="M65" s="64"/>
-      <c r="N65" s="64"/>
-      <c r="O65" s="64"/>
-      <c r="P65" s="64"/>
-      <c r="Q65" s="64"/>
-      <c r="R65" s="64"/>
-      <c r="S65" s="64"/>
-      <c r="T65" s="64"/>
-      <c r="U65" s="64"/>
-      <c r="V65" s="64"/>
-      <c r="W65" s="64"/>
-    </row>
-    <row r="66" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="64" t="n">
-        <v>764</v>
-      </c>
-      <c r="B66" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="65" t="s">
-        <v>533</v>
-      </c>
-      <c r="D66" s="65" t="s">
-        <v>611</v>
-      </c>
-      <c r="E66" s="65" t="s">
-        <v>612</v>
-      </c>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="H66" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="I66" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="J66" s="64" t="s">
-        <v>532</v>
-      </c>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64"/>
-      <c r="M66" s="64"/>
-      <c r="N66" s="64"/>
-      <c r="O66" s="64"/>
-      <c r="P66" s="64"/>
-      <c r="Q66" s="64"/>
-      <c r="R66" s="64"/>
-      <c r="S66" s="64"/>
-      <c r="T66" s="64"/>
-      <c r="U66" s="64"/>
-      <c r="V66" s="64"/>
-      <c r="W66" s="64"/>
-    </row>
-    <row r="67" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="64" t="n">
-        <v>764</v>
-      </c>
-      <c r="B67" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="65" t="s">
-        <v>533</v>
-      </c>
-      <c r="D67" s="65" t="s">
-        <v>613</v>
-      </c>
-      <c r="E67" s="65" t="s">
-        <v>614</v>
-      </c>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="H67" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="I67" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="J67" s="64" t="s">
-        <v>532</v>
-      </c>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="64"/>
-      <c r="P67" s="64"/>
-      <c r="Q67" s="64"/>
-      <c r="R67" s="64"/>
-      <c r="S67" s="64"/>
-      <c r="T67" s="64"/>
-      <c r="U67" s="64"/>
-      <c r="V67" s="64"/>
-      <c r="W67" s="64"/>
-    </row>
-    <row r="68" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="64" t="n">
-        <v>764</v>
-      </c>
-      <c r="B68" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="65" t="s">
-        <v>533</v>
-      </c>
-      <c r="D68" s="65" t="s">
-        <v>615</v>
-      </c>
-      <c r="E68" s="65" t="s">
-        <v>616</v>
-      </c>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="H68" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="I68" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="J68" s="64" t="s">
-        <v>532</v>
-      </c>
-      <c r="K68" s="64"/>
-      <c r="L68" s="64"/>
-      <c r="M68" s="64"/>
-      <c r="N68" s="64"/>
-      <c r="O68" s="64"/>
-      <c r="P68" s="64"/>
-      <c r="Q68" s="64"/>
-      <c r="R68" s="64"/>
-      <c r="S68" s="64"/>
-      <c r="T68" s="64"/>
-      <c r="U68" s="64"/>
-      <c r="V68" s="64"/>
-      <c r="W68" s="64"/>
-    </row>
-    <row r="69" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="64" t="n">
-        <v>764</v>
-      </c>
-      <c r="B69" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="65" t="s">
-        <v>533</v>
-      </c>
-      <c r="D69" s="65" t="s">
-        <v>617</v>
-      </c>
-      <c r="E69" s="65" t="s">
-        <v>618</v>
-      </c>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="H69" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="I69" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="J69" s="64" t="s">
-        <v>532</v>
-      </c>
-      <c r="K69" s="64"/>
-      <c r="L69" s="64"/>
-      <c r="M69" s="64"/>
-      <c r="N69" s="64"/>
-      <c r="O69" s="64"/>
-      <c r="P69" s="64"/>
-      <c r="Q69" s="64"/>
-      <c r="R69" s="64"/>
-      <c r="S69" s="64"/>
-      <c r="T69" s="64"/>
-      <c r="U69" s="64"/>
-      <c r="V69" s="64"/>
-      <c r="W69" s="64"/>
-    </row>
-    <row r="70" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="64" t="n">
-        <v>764</v>
-      </c>
-      <c r="B70" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="65" t="s">
-        <v>533</v>
-      </c>
-      <c r="D70" s="65" t="s">
-        <v>619</v>
-      </c>
-      <c r="E70" s="65" t="s">
-        <v>620</v>
-      </c>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="H70" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="I70" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="J70" s="64" t="s">
-        <v>532</v>
-      </c>
-      <c r="K70" s="64"/>
-      <c r="L70" s="64"/>
-      <c r="M70" s="64"/>
-      <c r="N70" s="64"/>
-      <c r="O70" s="64"/>
-      <c r="P70" s="64"/>
-      <c r="Q70" s="64"/>
-      <c r="R70" s="64"/>
-      <c r="S70" s="64"/>
-      <c r="T70" s="64"/>
-      <c r="U70" s="64"/>
-      <c r="V70" s="64"/>
-      <c r="W70" s="64"/>
-    </row>
-    <row r="71" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="64" t="n">
-        <v>764</v>
-      </c>
-      <c r="B71" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="65" t="s">
-        <v>533</v>
-      </c>
-      <c r="D71" s="65" t="s">
-        <v>621</v>
-      </c>
-      <c r="E71" s="65" t="s">
-        <v>622</v>
-      </c>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="H71" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="I71" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="J71" s="64" t="s">
-        <v>532</v>
-      </c>
-      <c r="K71" s="64"/>
-      <c r="L71" s="64"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="64"/>
-      <c r="O71" s="64"/>
-      <c r="P71" s="64"/>
-      <c r="Q71" s="64"/>
-      <c r="R71" s="64"/>
-      <c r="S71" s="64"/>
-      <c r="T71" s="64"/>
-      <c r="U71" s="64"/>
-      <c r="V71" s="64"/>
-      <c r="W71" s="64"/>
-    </row>
-    <row r="72" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="64" t="n">
-        <v>764</v>
-      </c>
-      <c r="B72" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="65" t="s">
-        <v>533</v>
-      </c>
-      <c r="D72" s="65" t="s">
-        <v>623</v>
-      </c>
-      <c r="E72" s="65" t="s">
-        <v>624</v>
-      </c>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="H72" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="I72" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="J72" s="64" t="s">
-        <v>532</v>
-      </c>
-      <c r="K72" s="64"/>
-      <c r="L72" s="64"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
-      <c r="O72" s="64"/>
-      <c r="P72" s="64"/>
-      <c r="Q72" s="64"/>
-      <c r="R72" s="64"/>
-      <c r="S72" s="64"/>
-      <c r="T72" s="64"/>
-      <c r="U72" s="64"/>
-      <c r="V72" s="64"/>
-      <c r="W72" s="64"/>
-    </row>
-    <row r="73" s="66" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="64" t="n">
-        <v>764</v>
-      </c>
-      <c r="B73" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="65" t="s">
-        <v>533</v>
-      </c>
-      <c r="D73" s="65" t="s">
-        <v>625</v>
-      </c>
-      <c r="E73" s="65" t="s">
-        <v>626</v>
-      </c>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="H73" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="I73" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="J73" s="64" t="s">
-        <v>532</v>
-      </c>
-      <c r="K73" s="64"/>
-      <c r="L73" s="64"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="64"/>
-      <c r="O73" s="64"/>
-      <c r="P73" s="64"/>
-      <c r="Q73" s="64"/>
-      <c r="R73" s="64"/>
-      <c r="S73" s="64"/>
-      <c r="T73" s="64"/>
-      <c r="U73" s="64"/>
-      <c r="V73" s="64"/>
-      <c r="W73" s="64"/>
     </row>
     <row r="74" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="67" t="n">
         <v>775</v>
       </c>
-      <c r="B74" s="67" t="s">
-        <v>627</v>
-      </c>
-      <c r="C74" s="67" t="s">
+      <c r="B74" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="70" t="s">
         <v>533</v>
       </c>
-      <c r="D74" s="67" t="s">
-        <v>628</v>
-      </c>
-      <c r="E74" s="67" t="s">
-        <v>629</v>
+      <c r="D74" s="70" t="s">
+        <v>650</v>
+      </c>
+      <c r="E74" s="70" t="s">
+        <v>651</v>
       </c>
       <c r="G74" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H74" s="67" t="s">
-        <v>631</v>
+        <v>632</v>
+      </c>
+      <c r="H74" s="70" t="s">
+        <v>74</v>
       </c>
       <c r="I74" s="67" t="s">
         <v>522</v>
@@ -9736,29 +9798,29 @@
         <v>532</v>
       </c>
     </row>
-    <row r="75" s="68" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="68" t="n">
+    <row r="75" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="67" t="n">
         <v>775</v>
       </c>
-      <c r="B75" s="69" t="s">
+      <c r="B75" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="69" t="s">
+      <c r="C75" s="70" t="s">
         <v>533</v>
       </c>
-      <c r="D75" s="69" t="s">
+      <c r="D75" s="70" t="s">
+        <v>652</v>
+      </c>
+      <c r="E75" s="70" t="s">
+        <v>653</v>
+      </c>
+      <c r="G75" s="67" t="s">
         <v>632</v>
       </c>
-      <c r="E75" s="69" t="s">
-        <v>633</v>
-      </c>
-      <c r="G75" s="68" t="s">
-        <v>630</v>
-      </c>
-      <c r="H75" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="I75" s="68" t="s">
+      <c r="H75" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="I75" s="67" t="s">
         <v>522</v>
       </c>
       <c r="J75" s="67" t="s">
@@ -9776,16 +9838,16 @@
         <v>533</v>
       </c>
       <c r="D76" s="70" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="E76" s="70" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="G76" s="67" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H76" s="70" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I76" s="67" t="s">
         <v>522</v>
@@ -9805,16 +9867,16 @@
         <v>533</v>
       </c>
       <c r="D77" s="70" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="E77" s="70" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="G77" s="67" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H77" s="70" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="I77" s="67" t="s">
         <v>522</v>
@@ -9834,16 +9896,16 @@
         <v>533</v>
       </c>
       <c r="D78" s="70" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="E78" s="70" t="s">
-        <v>604</v>
+        <v>659</v>
       </c>
       <c r="G78" s="67" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H78" s="70" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="I78" s="67" t="s">
         <v>522</v>
@@ -9863,16 +9925,16 @@
         <v>533</v>
       </c>
       <c r="D79" s="70" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="E79" s="70" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="G79" s="67" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H79" s="70" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I79" s="67" t="s">
         <v>522</v>
@@ -9892,16 +9954,16 @@
         <v>533</v>
       </c>
       <c r="D80" s="70" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="E80" s="70" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="G80" s="67" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H80" s="70" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="I80" s="67" t="s">
         <v>522</v>
@@ -9910,726 +9972,627 @@
         <v>532</v>
       </c>
     </row>
-    <row r="81" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="67" t="n">
+    <row r="81" s="71" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="71" t="n">
         <v>775</v>
       </c>
-      <c r="B81" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" s="70" t="s">
+      <c r="B81" s="71" t="s">
+        <v>629</v>
+      </c>
+      <c r="C81" s="71" t="s">
         <v>533</v>
       </c>
-      <c r="D81" s="70" t="s">
-        <v>642</v>
-      </c>
-      <c r="E81" s="70" t="s">
-        <v>643</v>
-      </c>
-      <c r="G81" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H81" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="I81" s="67" t="s">
+      <c r="D81" s="71" t="s">
+        <v>662</v>
+      </c>
+      <c r="G81" s="71" t="s">
+        <v>632</v>
+      </c>
+      <c r="I81" s="71" t="s">
         <v>522</v>
       </c>
-      <c r="J81" s="67" t="s">
+      <c r="J81" s="71" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="82" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="67" t="n">
+    <row r="82" s="72" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="72" t="n">
         <v>775</v>
       </c>
-      <c r="B82" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="70" t="s">
+      <c r="B82" s="72" t="s">
+        <v>629</v>
+      </c>
+      <c r="G82" s="72" t="s">
+        <v>632</v>
+      </c>
+      <c r="H82" s="72" t="s">
+        <v>663</v>
+      </c>
+      <c r="I82" s="72" t="s">
+        <v>522</v>
+      </c>
+      <c r="J82" s="72" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83" s="74" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="72" t="n">
+        <v>777</v>
+      </c>
+      <c r="B83" s="72" t="s">
+        <v>664</v>
+      </c>
+      <c r="C83" s="72"/>
+      <c r="D83" s="73" t="s">
+        <v>665</v>
+      </c>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72" t="s">
+        <v>567</v>
+      </c>
+      <c r="H83" s="72" t="s">
+        <v>666</v>
+      </c>
+      <c r="I83" s="72" t="s">
+        <v>522</v>
+      </c>
+      <c r="J83" s="72" t="s">
+        <v>532</v>
+      </c>
+      <c r="K83" s="72"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="72"/>
+      <c r="N83" s="72"/>
+      <c r="O83" s="72"/>
+      <c r="P83" s="72"/>
+      <c r="Q83" s="72"/>
+      <c r="R83" s="72"/>
+      <c r="S83" s="72"/>
+      <c r="T83" s="72"/>
+      <c r="U83" s="72"/>
+      <c r="V83" s="72"/>
+      <c r="W83" s="72"/>
+    </row>
+    <row r="84" s="77" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="75" t="n">
+        <v>779</v>
+      </c>
+      <c r="B84" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="75"/>
+      <c r="D84" s="76" t="s">
+        <v>667</v>
+      </c>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="75" t="s">
+        <v>522</v>
+      </c>
+      <c r="J84" s="75" t="s">
+        <v>532</v>
+      </c>
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="75"/>
+      <c r="O84" s="75"/>
+      <c r="P84" s="75"/>
+      <c r="Q84" s="75"/>
+      <c r="R84" s="75"/>
+      <c r="S84" s="75"/>
+      <c r="T84" s="75"/>
+      <c r="U84" s="75"/>
+      <c r="V84" s="75"/>
+      <c r="W84" s="75"/>
+    </row>
+    <row r="85" s="80" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="78" t="n">
+        <v>781</v>
+      </c>
+      <c r="B85" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="79" t="s">
         <v>533</v>
       </c>
-      <c r="D82" s="70" t="s">
-        <v>644</v>
-      </c>
-      <c r="E82" s="70" t="s">
-        <v>536</v>
-      </c>
-      <c r="G82" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H82" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="I82" s="67" t="s">
+      <c r="D85" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="78"/>
+      <c r="I85" s="78" t="s">
         <v>522</v>
       </c>
-      <c r="J82" s="67" t="s">
+      <c r="J85" s="78" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="83" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="67" t="n">
-        <v>775</v>
-      </c>
-      <c r="B83" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="70" t="s">
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="78"/>
+      <c r="N85" s="78"/>
+      <c r="O85" s="78"/>
+      <c r="P85" s="78"/>
+      <c r="Q85" s="78"/>
+      <c r="R85" s="78"/>
+      <c r="S85" s="78"/>
+      <c r="T85" s="78"/>
+      <c r="U85" s="78"/>
+      <c r="V85" s="78"/>
+      <c r="W85" s="78"/>
+    </row>
+    <row r="86" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="78" t="n">
+        <v>781</v>
+      </c>
+      <c r="B86" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" s="78" t="s">
+        <v>567</v>
+      </c>
+      <c r="H86" s="78" t="s">
+        <v>669</v>
+      </c>
+      <c r="I86" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="J86" s="78" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="87" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="78" t="n">
+        <v>781</v>
+      </c>
+      <c r="B87" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87" s="78" t="s">
+        <v>567</v>
+      </c>
+      <c r="H87" s="78" t="s">
+        <v>670</v>
+      </c>
+      <c r="I87" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="J87" s="78" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="88" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="78" t="n">
+        <v>781</v>
+      </c>
+      <c r="B88" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="G88" s="78" t="s">
+        <v>567</v>
+      </c>
+      <c r="H88" s="78" t="s">
+        <v>671</v>
+      </c>
+      <c r="I88" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="J88" s="78" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="89" s="81" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="81" t="n">
+        <v>783</v>
+      </c>
+      <c r="B89" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="D83" s="70" t="s">
-        <v>645</v>
-      </c>
-      <c r="E83" s="70" t="s">
-        <v>646</v>
-      </c>
-      <c r="G83" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H83" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="I83" s="67" t="s">
+      <c r="D89" s="82" t="s">
+        <v>672</v>
+      </c>
+      <c r="I89" s="81" t="s">
         <v>522</v>
       </c>
-      <c r="J83" s="67" t="s">
+      <c r="J89" s="81" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="84" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="67" t="n">
-        <v>775</v>
-      </c>
-      <c r="B84" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="70" t="s">
+    <row r="90" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="33" t="n">
+        <v>787</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="D84" s="70" t="s">
-        <v>647</v>
-      </c>
-      <c r="E84" s="70" t="s">
-        <v>608</v>
-      </c>
-      <c r="G84" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H84" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="I84" s="67" t="s">
+      <c r="D90" s="33" t="s">
+        <v>673</v>
+      </c>
+      <c r="I90" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="J84" s="67" t="s">
+      <c r="J90" s="33" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="85" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="67" t="n">
-        <v>775</v>
-      </c>
-      <c r="B85" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="D85" s="70" t="s">
-        <v>648</v>
-      </c>
-      <c r="E85" s="70" t="s">
-        <v>649</v>
-      </c>
-      <c r="G85" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H85" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="I85" s="67" t="s">
+    <row r="91" s="84" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="83" t="n">
+        <v>864</v>
+      </c>
+      <c r="B91" s="83" t="s">
+        <v>674</v>
+      </c>
+      <c r="C91" s="83"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83" t="s">
+        <v>675</v>
+      </c>
+      <c r="H91" s="83" t="s">
+        <v>676</v>
+      </c>
+      <c r="I91" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="J85" s="67" t="s">
+      <c r="J91" s="83" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="86" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="67" t="n">
-        <v>775</v>
-      </c>
-      <c r="B86" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="D86" s="70" t="s">
-        <v>650</v>
-      </c>
-      <c r="E86" s="70" t="s">
-        <v>651</v>
-      </c>
-      <c r="G86" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H86" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="I86" s="67" t="s">
+      <c r="K91" s="83"/>
+      <c r="L91" s="83"/>
+      <c r="M91" s="83"/>
+      <c r="N91" s="83"/>
+      <c r="O91" s="83"/>
+      <c r="P91" s="83"/>
+      <c r="Q91" s="83"/>
+      <c r="R91" s="83"/>
+      <c r="S91" s="83"/>
+      <c r="T91" s="83"/>
+      <c r="U91" s="83"/>
+      <c r="V91" s="83"/>
+      <c r="W91" s="83"/>
+    </row>
+    <row r="92" s="84" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="83" t="n">
+        <v>864</v>
+      </c>
+      <c r="B92" s="83" t="s">
+        <v>674</v>
+      </c>
+      <c r="C92" s="83"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="83" t="s">
+        <v>675</v>
+      </c>
+      <c r="H92" s="83" t="s">
+        <v>677</v>
+      </c>
+      <c r="I92" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="J86" s="67" t="s">
+      <c r="J92" s="83" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="87" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="67" t="n">
-        <v>775</v>
-      </c>
-      <c r="B87" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C87" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="D87" s="70" t="s">
-        <v>652</v>
-      </c>
-      <c r="E87" s="70" t="s">
-        <v>653</v>
-      </c>
-      <c r="G87" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H87" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="I87" s="67" t="s">
+      <c r="K92" s="83"/>
+      <c r="L92" s="83"/>
+      <c r="M92" s="83"/>
+      <c r="N92" s="83"/>
+      <c r="O92" s="83"/>
+      <c r="P92" s="83"/>
+      <c r="Q92" s="83"/>
+      <c r="R92" s="83"/>
+      <c r="S92" s="83"/>
+      <c r="T92" s="83"/>
+      <c r="U92" s="83"/>
+      <c r="V92" s="83"/>
+      <c r="W92" s="83"/>
+    </row>
+    <row r="93" s="84" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="83" t="n">
+        <v>864</v>
+      </c>
+      <c r="B93" s="83" t="s">
+        <v>674</v>
+      </c>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83" t="s">
+        <v>675</v>
+      </c>
+      <c r="H93" s="83" t="s">
+        <v>678</v>
+      </c>
+      <c r="I93" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="J87" s="67" t="s">
+      <c r="J93" s="83" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="88" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="67" t="n">
-        <v>775</v>
-      </c>
-      <c r="B88" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="D88" s="70" t="s">
-        <v>654</v>
-      </c>
-      <c r="E88" s="70" t="s">
-        <v>655</v>
-      </c>
-      <c r="G88" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H88" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="I88" s="67" t="s">
+      <c r="K93" s="83"/>
+      <c r="L93" s="83"/>
+      <c r="M93" s="83"/>
+      <c r="N93" s="83"/>
+      <c r="O93" s="83"/>
+      <c r="P93" s="83"/>
+      <c r="Q93" s="83"/>
+      <c r="R93" s="83"/>
+      <c r="S93" s="83"/>
+      <c r="T93" s="83"/>
+      <c r="U93" s="83"/>
+      <c r="V93" s="83"/>
+      <c r="W93" s="83"/>
+    </row>
+    <row r="94" s="84" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="83" t="n">
+        <v>864</v>
+      </c>
+      <c r="B94" s="83" t="s">
+        <v>674</v>
+      </c>
+      <c r="C94" s="83"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83" t="s">
+        <v>675</v>
+      </c>
+      <c r="H94" s="83" t="s">
+        <v>679</v>
+      </c>
+      <c r="I94" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="J88" s="67" t="s">
+      <c r="J94" s="83" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="89" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="67" t="n">
-        <v>775</v>
-      </c>
-      <c r="B89" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="D89" s="70" t="s">
-        <v>656</v>
-      </c>
-      <c r="E89" s="70" t="s">
-        <v>657</v>
-      </c>
-      <c r="G89" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H89" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="I89" s="67" t="s">
+      <c r="K94" s="83"/>
+      <c r="L94" s="83"/>
+      <c r="M94" s="83"/>
+      <c r="N94" s="83"/>
+      <c r="O94" s="83"/>
+      <c r="P94" s="83"/>
+      <c r="Q94" s="83"/>
+      <c r="R94" s="83"/>
+      <c r="S94" s="83"/>
+      <c r="T94" s="83"/>
+      <c r="U94" s="83"/>
+      <c r="V94" s="83"/>
+      <c r="W94" s="83"/>
+    </row>
+    <row r="95" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="45" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B95" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G95" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="H95" s="45" t="s">
+        <v>681</v>
+      </c>
+      <c r="I95" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="J89" s="67" t="s">
+      <c r="J95" s="45" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="90" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="67" t="n">
-        <v>775</v>
-      </c>
-      <c r="B90" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C90" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="D90" s="70" t="s">
-        <v>658</v>
-      </c>
-      <c r="E90" s="70" t="s">
-        <v>659</v>
-      </c>
-      <c r="G90" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H90" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="I90" s="67" t="s">
+    <row r="96" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="45" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B96" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G96" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="H96" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="I96" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="J90" s="67" t="s">
+      <c r="J96" s="45" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="91" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="67" t="n">
-        <v>775</v>
-      </c>
-      <c r="B91" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="D91" s="70" t="s">
-        <v>628</v>
-      </c>
-      <c r="E91" s="70" t="s">
-        <v>629</v>
-      </c>
-      <c r="G91" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H91" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="I91" s="67" t="s">
+    <row r="97" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="45" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B97" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G97" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="H97" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="I97" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="J91" s="67" t="s">
+      <c r="J97" s="45" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="92" s="71" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="71" t="n">
-        <v>775</v>
-      </c>
-      <c r="B92" s="71" t="s">
-        <v>627</v>
-      </c>
-      <c r="C92" s="71" t="s">
-        <v>533</v>
-      </c>
-      <c r="D92" s="71" t="s">
-        <v>660</v>
-      </c>
-      <c r="G92" s="71" t="s">
-        <v>630</v>
-      </c>
-      <c r="I92" s="71" t="s">
+    <row r="98" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="45" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B98" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G98" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="H98" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="I98" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="J92" s="71" t="s">
+      <c r="J98" s="45" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="93" s="72" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="72" t="n">
-        <v>775</v>
-      </c>
-      <c r="B93" s="72" t="s">
-        <v>627</v>
-      </c>
-      <c r="G93" s="72" t="s">
-        <v>630</v>
-      </c>
-      <c r="H93" s="72" t="s">
-        <v>661</v>
-      </c>
-      <c r="I93" s="72" t="s">
+    <row r="99" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="45" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B99" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G99" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="H99" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="I99" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="J93" s="72" t="s">
+      <c r="J99" s="45" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="94" s="74" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="72" t="n">
-        <v>777</v>
-      </c>
-      <c r="B94" s="72" t="s">
-        <v>662</v>
-      </c>
-      <c r="C94" s="72"/>
-      <c r="D94" s="73" t="s">
-        <v>663</v>
-      </c>
-      <c r="E94" s="72"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="H94" s="72" t="s">
-        <v>664</v>
-      </c>
-      <c r="I94" s="72" t="s">
+    <row r="100" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="45" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B100" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G100" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="H100" s="45" t="s">
+        <v>686</v>
+      </c>
+      <c r="I100" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="J94" s="72" t="s">
+      <c r="J100" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="K94" s="72"/>
-      <c r="L94" s="72"/>
-      <c r="M94" s="72"/>
-      <c r="N94" s="72"/>
-      <c r="O94" s="72"/>
-      <c r="P94" s="72"/>
-      <c r="Q94" s="72"/>
-      <c r="R94" s="72"/>
-      <c r="S94" s="72"/>
-      <c r="T94" s="72"/>
-      <c r="U94" s="72"/>
-      <c r="V94" s="72"/>
-      <c r="W94" s="72"/>
-    </row>
-    <row r="95" s="77" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="75" t="n">
-        <v>779</v>
-      </c>
-      <c r="B95" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C95" s="75"/>
-      <c r="D95" s="76" t="s">
-        <v>665</v>
-      </c>
-      <c r="E95" s="75"/>
-      <c r="F95" s="75"/>
-      <c r="G95" s="75"/>
-      <c r="H95" s="75"/>
-      <c r="I95" s="75" t="s">
+    </row>
+    <row r="101" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="45" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B101" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G101" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="H101" s="45" t="s">
+        <v>687</v>
+      </c>
+      <c r="I101" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="J95" s="75" t="s">
+      <c r="J101" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="K95" s="75"/>
-      <c r="L95" s="75"/>
-      <c r="M95" s="75"/>
-      <c r="N95" s="75"/>
-      <c r="O95" s="75"/>
-      <c r="P95" s="75"/>
-      <c r="Q95" s="75"/>
-      <c r="R95" s="75"/>
-      <c r="S95" s="75"/>
-      <c r="T95" s="75"/>
-      <c r="U95" s="75"/>
-      <c r="V95" s="75"/>
-      <c r="W95" s="75"/>
-    </row>
-    <row r="96" s="80" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="78" t="n">
-        <v>781</v>
-      </c>
-      <c r="B96" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="79" t="s">
-        <v>533</v>
-      </c>
-      <c r="D96" s="79" t="s">
-        <v>666</v>
-      </c>
-      <c r="E96" s="78"/>
-      <c r="F96" s="78"/>
-      <c r="G96" s="78"/>
-      <c r="H96" s="78"/>
-      <c r="I96" s="78" t="s">
+    </row>
+    <row r="102" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="45" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B102" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G102" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="H102" s="45" t="s">
+        <v>688</v>
+      </c>
+      <c r="I102" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="J96" s="78" t="s">
+      <c r="J102" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="K96" s="78"/>
-      <c r="L96" s="78"/>
-      <c r="M96" s="78"/>
-      <c r="N96" s="78"/>
-      <c r="O96" s="78"/>
-      <c r="P96" s="78"/>
-      <c r="Q96" s="78"/>
-      <c r="R96" s="78"/>
-      <c r="S96" s="78"/>
-      <c r="T96" s="78"/>
-      <c r="U96" s="78"/>
-      <c r="V96" s="78"/>
-      <c r="W96" s="78"/>
-    </row>
-    <row r="97" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="78" t="n">
-        <v>781</v>
-      </c>
-      <c r="B97" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="G97" s="78" t="s">
-        <v>565</v>
-      </c>
-      <c r="H97" s="78" t="s">
-        <v>667</v>
-      </c>
-      <c r="I97" s="78" t="s">
+    </row>
+    <row r="103" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="45" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B103" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G103" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="H103" s="45" t="s">
+        <v>689</v>
+      </c>
+      <c r="I103" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="J97" s="78" t="s">
+      <c r="J103" s="45" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="98" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="78" t="n">
-        <v>781</v>
-      </c>
-      <c r="B98" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="G98" s="78" t="s">
-        <v>565</v>
-      </c>
-      <c r="H98" s="78" t="s">
-        <v>668</v>
-      </c>
-      <c r="I98" s="78" t="s">
+    <row r="104" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="45" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B104" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G104" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="H104" s="45" t="s">
+        <v>690</v>
+      </c>
+      <c r="I104" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="J98" s="78" t="s">
+      <c r="J104" s="45" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="99" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="78" t="n">
-        <v>781</v>
-      </c>
-      <c r="B99" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="G99" s="78" t="s">
-        <v>565</v>
-      </c>
-      <c r="H99" s="78" t="s">
-        <v>669</v>
-      </c>
-      <c r="I99" s="78" t="s">
+    <row r="105" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="45" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B105" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G105" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="H105" s="45" t="s">
+        <v>691</v>
+      </c>
+      <c r="I105" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="J99" s="78" t="s">
+      <c r="J105" s="45" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="100" s="81" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="81" t="n">
-        <v>783</v>
-      </c>
-      <c r="B100" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C100" s="82" t="s">
-        <v>533</v>
-      </c>
-      <c r="D100" s="82" t="s">
-        <v>670</v>
-      </c>
-      <c r="I100" s="81" t="s">
-        <v>522</v>
-      </c>
-      <c r="J100" s="81" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="101" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="33" t="n">
-        <v>787</v>
-      </c>
-      <c r="B101" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>533</v>
-      </c>
-      <c r="D101" s="33" t="s">
-        <v>671</v>
-      </c>
-      <c r="I101" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="J101" s="33" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="102" s="84" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="83" t="n">
-        <v>864</v>
-      </c>
-      <c r="B102" s="83" t="s">
-        <v>672</v>
-      </c>
-      <c r="C102" s="83"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="83"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="83" t="s">
-        <v>673</v>
-      </c>
-      <c r="H102" s="83" t="s">
-        <v>674</v>
-      </c>
-      <c r="I102" s="83" t="s">
-        <v>522</v>
-      </c>
-      <c r="J102" s="83" t="s">
-        <v>532</v>
-      </c>
-      <c r="K102" s="83"/>
-      <c r="L102" s="83"/>
-      <c r="M102" s="83"/>
-      <c r="N102" s="83"/>
-      <c r="O102" s="83"/>
-      <c r="P102" s="83"/>
-      <c r="Q102" s="83"/>
-      <c r="R102" s="83"/>
-      <c r="S102" s="83"/>
-      <c r="T102" s="83"/>
-      <c r="U102" s="83"/>
-      <c r="V102" s="83"/>
-      <c r="W102" s="83"/>
-    </row>
-    <row r="103" s="84" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="83" t="n">
-        <v>864</v>
-      </c>
-      <c r="B103" s="83" t="s">
-        <v>672</v>
-      </c>
-      <c r="C103" s="83"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="83" t="s">
-        <v>673</v>
-      </c>
-      <c r="H103" s="83" t="s">
-        <v>675</v>
-      </c>
-      <c r="I103" s="83" t="s">
-        <v>522</v>
-      </c>
-      <c r="J103" s="83" t="s">
-        <v>532</v>
-      </c>
-      <c r="K103" s="83"/>
-      <c r="L103" s="83"/>
-      <c r="M103" s="83"/>
-      <c r="N103" s="83"/>
-      <c r="O103" s="83"/>
-      <c r="P103" s="83"/>
-      <c r="Q103" s="83"/>
-      <c r="R103" s="83"/>
-      <c r="S103" s="83"/>
-      <c r="T103" s="83"/>
-      <c r="U103" s="83"/>
-      <c r="V103" s="83"/>
-      <c r="W103" s="83"/>
-    </row>
-    <row r="104" s="84" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="83" t="n">
-        <v>864</v>
-      </c>
-      <c r="B104" s="83" t="s">
-        <v>672</v>
-      </c>
-      <c r="C104" s="83"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="83" t="s">
-        <v>673</v>
-      </c>
-      <c r="H104" s="83" t="s">
-        <v>676</v>
-      </c>
-      <c r="I104" s="83" t="s">
-        <v>522</v>
-      </c>
-      <c r="J104" s="83" t="s">
-        <v>532</v>
-      </c>
-      <c r="K104" s="83"/>
-      <c r="L104" s="83"/>
-      <c r="M104" s="83"/>
-      <c r="N104" s="83"/>
-      <c r="O104" s="83"/>
-      <c r="P104" s="83"/>
-      <c r="Q104" s="83"/>
-      <c r="R104" s="83"/>
-      <c r="S104" s="83"/>
-      <c r="T104" s="83"/>
-      <c r="U104" s="83"/>
-      <c r="V104" s="83"/>
-      <c r="W104" s="83"/>
-    </row>
-    <row r="105" s="84" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="83" t="n">
-        <v>864</v>
-      </c>
-      <c r="B105" s="83" t="s">
-        <v>672</v>
-      </c>
-      <c r="C105" s="83"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83" t="s">
-        <v>673</v>
-      </c>
-      <c r="H105" s="83" t="s">
-        <v>677</v>
-      </c>
-      <c r="I105" s="83" t="s">
-        <v>522</v>
-      </c>
-      <c r="J105" s="83" t="s">
-        <v>532</v>
-      </c>
-      <c r="K105" s="83"/>
-      <c r="L105" s="83"/>
-      <c r="M105" s="83"/>
-      <c r="N105" s="83"/>
-      <c r="O105" s="83"/>
-      <c r="P105" s="83"/>
-      <c r="Q105" s="83"/>
-      <c r="R105" s="83"/>
-      <c r="S105" s="83"/>
-      <c r="T105" s="83"/>
-      <c r="U105" s="83"/>
-      <c r="V105" s="83"/>
-      <c r="W105" s="83"/>
     </row>
     <row r="106" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="45" t="n">
@@ -10639,10 +10602,10 @@
         <v>222</v>
       </c>
       <c r="G106" s="45" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H106" s="45" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="I106" s="45" t="s">
         <v>522</v>
@@ -10653,16 +10616,16 @@
     </row>
     <row r="107" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="45" t="n">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="G107" s="45" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H107" s="45" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="I107" s="45" t="s">
         <v>522</v>
@@ -10673,16 +10636,16 @@
     </row>
     <row r="108" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="45" t="n">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="G108" s="45" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H108" s="45" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="I108" s="45" t="s">
         <v>522</v>
@@ -10693,16 +10656,16 @@
     </row>
     <row r="109" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="45" t="n">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B109" s="45" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="G109" s="45" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H109" s="45" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="I109" s="45" t="s">
         <v>522</v>
@@ -10713,16 +10676,16 @@
     </row>
     <row r="110" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="45" t="n">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B110" s="45" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="G110" s="45" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H110" s="45" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="I110" s="45" t="s">
         <v>522</v>
@@ -10731,249 +10694,392 @@
         <v>532</v>
       </c>
     </row>
-    <row r="111" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="45" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B111" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G111" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="H111" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="I111" s="45" t="s">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="10" t="n">
+        <v>1824</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="I111" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="J111" s="45" t="s">
+      <c r="J111" s="10" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="112" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="45" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B112" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G112" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="H112" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="I112" s="45" t="s">
-        <v>522</v>
-      </c>
-      <c r="J112" s="45" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="113" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="45" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B113" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G113" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="H113" s="45" t="s">
-        <v>686</v>
-      </c>
-      <c r="I113" s="45" t="s">
-        <v>522</v>
-      </c>
-      <c r="J113" s="45" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="114" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="45" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B114" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G114" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="H114" s="45" t="s">
-        <v>687</v>
-      </c>
-      <c r="I114" s="45" t="s">
-        <v>522</v>
-      </c>
-      <c r="J114" s="45" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="115" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="45" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B115" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G115" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="H115" s="45" t="s">
-        <v>688</v>
-      </c>
-      <c r="I115" s="45" t="s">
-        <v>522</v>
-      </c>
-      <c r="J115" s="45" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="116" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="45" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B116" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G116" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="H116" s="45" t="s">
-        <v>689</v>
-      </c>
-      <c r="I116" s="45" t="s">
-        <v>522</v>
-      </c>
-      <c r="J116" s="45" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="117" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="45" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B117" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G117" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="H117" s="45" t="s">
-        <v>690</v>
-      </c>
-      <c r="I117" s="45" t="s">
-        <v>522</v>
-      </c>
-      <c r="J117" s="45" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="118" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="45" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B118" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="G118" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="H118" s="45" t="s">
-        <v>691</v>
-      </c>
-      <c r="I118" s="45" t="s">
-        <v>522</v>
-      </c>
-      <c r="J118" s="45" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="119" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="45" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B119" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="G119" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="H119" s="45" t="s">
-        <v>691</v>
-      </c>
-      <c r="I119" s="45" t="s">
-        <v>522</v>
-      </c>
-      <c r="J119" s="45" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="120" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="45" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B120" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="G120" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="H120" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="I120" s="45" t="s">
-        <v>522</v>
-      </c>
-      <c r="J120" s="45" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="121" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="45" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B121" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="G121" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="H121" s="45" t="s">
-        <v>693</v>
-      </c>
-      <c r="I121" s="45" t="s">
-        <v>522</v>
-      </c>
-      <c r="J121" s="45" t="s">
-        <v>532</v>
-      </c>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+      <c r="T111" s="10"/>
+      <c r="U111" s="10"/>
+      <c r="V111" s="10"/>
+      <c r="W111" s="10"/>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="10"/>
+      <c r="Z111" s="10"/>
+      <c r="AA111" s="10"/>
+      <c r="AB111" s="10"/>
+      <c r="AC111" s="10"/>
+      <c r="AD111" s="10"/>
+      <c r="AE111" s="10"/>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="10"/>
+      <c r="S112" s="10"/>
+      <c r="T112" s="10"/>
+      <c r="U112" s="10"/>
+      <c r="V112" s="10"/>
+      <c r="W112" s="10"/>
+      <c r="X112" s="10"/>
+      <c r="Y112" s="10"/>
+      <c r="Z112" s="10"/>
+      <c r="AA112" s="10"/>
+      <c r="AB112" s="10"/>
+      <c r="AC112" s="10"/>
+      <c r="AD112" s="10"/>
+      <c r="AE112" s="10"/>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+      <c r="R113" s="10"/>
+      <c r="S113" s="10"/>
+      <c r="T113" s="10"/>
+      <c r="U113" s="10"/>
+      <c r="V113" s="10"/>
+      <c r="W113" s="10"/>
+      <c r="X113" s="10"/>
+      <c r="Y113" s="10"/>
+      <c r="Z113" s="10"/>
+      <c r="AA113" s="10"/>
+      <c r="AB113" s="10"/>
+      <c r="AC113" s="10"/>
+      <c r="AD113" s="10"/>
+      <c r="AE113" s="10"/>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="10"/>
+      <c r="S114" s="10"/>
+      <c r="T114" s="10"/>
+      <c r="U114" s="10"/>
+      <c r="V114" s="10"/>
+      <c r="W114" s="10"/>
+      <c r="X114" s="10"/>
+      <c r="Y114" s="10"/>
+      <c r="Z114" s="10"/>
+      <c r="AA114" s="10"/>
+      <c r="AB114" s="10"/>
+      <c r="AC114" s="10"/>
+      <c r="AD114" s="10"/>
+      <c r="AE114" s="10"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="10"/>
+      <c r="V115" s="10"/>
+      <c r="W115" s="10"/>
+      <c r="X115" s="10"/>
+      <c r="Y115" s="10"/>
+      <c r="Z115" s="10"/>
+      <c r="AA115" s="10"/>
+      <c r="AB115" s="10"/>
+      <c r="AC115" s="10"/>
+      <c r="AD115" s="10"/>
+      <c r="AE115" s="10"/>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10"/>
+      <c r="R116" s="10"/>
+      <c r="S116" s="10"/>
+      <c r="T116" s="10"/>
+      <c r="U116" s="10"/>
+      <c r="V116" s="10"/>
+      <c r="W116" s="10"/>
+      <c r="X116" s="10"/>
+      <c r="Y116" s="10"/>
+      <c r="Z116" s="10"/>
+      <c r="AA116" s="10"/>
+      <c r="AB116" s="10"/>
+      <c r="AC116" s="10"/>
+      <c r="AD116" s="10"/>
+      <c r="AE116" s="10"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+      <c r="R117" s="10"/>
+      <c r="S117" s="10"/>
+      <c r="T117" s="10"/>
+      <c r="U117" s="10"/>
+      <c r="V117" s="10"/>
+      <c r="W117" s="10"/>
+      <c r="X117" s="10"/>
+      <c r="Y117" s="10"/>
+      <c r="Z117" s="10"/>
+      <c r="AA117" s="10"/>
+      <c r="AB117" s="10"/>
+      <c r="AC117" s="10"/>
+      <c r="AD117" s="10"/>
+      <c r="AE117" s="10"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
+      <c r="R118" s="10"/>
+      <c r="S118" s="10"/>
+      <c r="T118" s="10"/>
+      <c r="U118" s="10"/>
+      <c r="V118" s="10"/>
+      <c r="W118" s="10"/>
+      <c r="X118" s="10"/>
+      <c r="Y118" s="10"/>
+      <c r="Z118" s="10"/>
+      <c r="AA118" s="10"/>
+      <c r="AB118" s="10"/>
+      <c r="AC118" s="10"/>
+      <c r="AD118" s="10"/>
+      <c r="AE118" s="10"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="10"/>
+      <c r="S119" s="10"/>
+      <c r="T119" s="10"/>
+      <c r="U119" s="10"/>
+      <c r="V119" s="10"/>
+      <c r="W119" s="10"/>
+      <c r="X119" s="10"/>
+      <c r="Y119" s="10"/>
+      <c r="Z119" s="10"/>
+      <c r="AA119" s="10"/>
+      <c r="AB119" s="10"/>
+      <c r="AC119" s="10"/>
+      <c r="AD119" s="10"/>
+      <c r="AE119" s="10"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
+      <c r="T120" s="10"/>
+      <c r="U120" s="10"/>
+      <c r="V120" s="10"/>
+      <c r="W120" s="10"/>
+      <c r="X120" s="10"/>
+      <c r="Y120" s="10"/>
+      <c r="Z120" s="10"/>
+      <c r="AA120" s="10"/>
+      <c r="AB120" s="10"/>
+      <c r="AC120" s="10"/>
+      <c r="AD120" s="10"/>
+      <c r="AE120" s="10"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
+      <c r="R121" s="10"/>
+      <c r="S121" s="10"/>
+      <c r="T121" s="10"/>
+      <c r="U121" s="10"/>
+      <c r="V121" s="10"/>
+      <c r="W121" s="10"/>
+      <c r="X121" s="10"/>
+      <c r="Y121" s="10"/>
+      <c r="Z121" s="10"/>
+      <c r="AA121" s="10"/>
+      <c r="AB121" s="10"/>
+      <c r="AC121" s="10"/>
+      <c r="AD121" s="10"/>
+      <c r="AE121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10" t="n">
-        <v>1824</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>694</v>
-      </c>
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
-      <c r="G122" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="I122" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="J122" s="10" t="s">
-        <v>532</v>
-      </c>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
       <c r="K122" s="10"/>
       <c r="L122" s="10"/>
       <c r="M122" s="10"/>
@@ -13900,369 +14006,17 @@
       <c r="AD210" s="10"/>
       <c r="AE210" s="10"/>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="10"/>
-      <c r="B211" s="10"/>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-      <c r="H211" s="10"/>
-      <c r="I211" s="10"/>
-      <c r="J211" s="10"/>
-      <c r="K211" s="10"/>
-      <c r="L211" s="10"/>
-      <c r="M211" s="10"/>
-      <c r="N211" s="10"/>
-      <c r="O211" s="10"/>
-      <c r="P211" s="10"/>
-      <c r="Q211" s="10"/>
-      <c r="R211" s="10"/>
-      <c r="S211" s="10"/>
-      <c r="T211" s="10"/>
-      <c r="U211" s="10"/>
-      <c r="V211" s="10"/>
-      <c r="W211" s="10"/>
-      <c r="X211" s="10"/>
-      <c r="Y211" s="10"/>
-      <c r="Z211" s="10"/>
-      <c r="AA211" s="10"/>
-      <c r="AB211" s="10"/>
-      <c r="AC211" s="10"/>
-      <c r="AD211" s="10"/>
-      <c r="AE211" s="10"/>
-    </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="10"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-      <c r="H212" s="10"/>
-      <c r="I212" s="10"/>
-      <c r="J212" s="10"/>
-      <c r="K212" s="10"/>
-      <c r="L212" s="10"/>
-      <c r="M212" s="10"/>
-      <c r="N212" s="10"/>
-      <c r="O212" s="10"/>
-      <c r="P212" s="10"/>
-      <c r="Q212" s="10"/>
-      <c r="R212" s="10"/>
-      <c r="S212" s="10"/>
-      <c r="T212" s="10"/>
-      <c r="U212" s="10"/>
-      <c r="V212" s="10"/>
-      <c r="W212" s="10"/>
-      <c r="X212" s="10"/>
-      <c r="Y212" s="10"/>
-      <c r="Z212" s="10"/>
-      <c r="AA212" s="10"/>
-      <c r="AB212" s="10"/>
-      <c r="AC212" s="10"/>
-      <c r="AD212" s="10"/>
-      <c r="AE212" s="10"/>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="10"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="10"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
-      <c r="H213" s="10"/>
-      <c r="I213" s="10"/>
-      <c r="J213" s="10"/>
-      <c r="K213" s="10"/>
-      <c r="L213" s="10"/>
-      <c r="M213" s="10"/>
-      <c r="N213" s="10"/>
-      <c r="O213" s="10"/>
-      <c r="P213" s="10"/>
-      <c r="Q213" s="10"/>
-      <c r="R213" s="10"/>
-      <c r="S213" s="10"/>
-      <c r="T213" s="10"/>
-      <c r="U213" s="10"/>
-      <c r="V213" s="10"/>
-      <c r="W213" s="10"/>
-      <c r="X213" s="10"/>
-      <c r="Y213" s="10"/>
-      <c r="Z213" s="10"/>
-      <c r="AA213" s="10"/>
-      <c r="AB213" s="10"/>
-      <c r="AC213" s="10"/>
-      <c r="AD213" s="10"/>
-      <c r="AE213" s="10"/>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="10"/>
-      <c r="B214" s="10"/>
-      <c r="C214" s="10"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
-      <c r="H214" s="10"/>
-      <c r="I214" s="10"/>
-      <c r="J214" s="10"/>
-      <c r="K214" s="10"/>
-      <c r="L214" s="10"/>
-      <c r="M214" s="10"/>
-      <c r="N214" s="10"/>
-      <c r="O214" s="10"/>
-      <c r="P214" s="10"/>
-      <c r="Q214" s="10"/>
-      <c r="R214" s="10"/>
-      <c r="S214" s="10"/>
-      <c r="T214" s="10"/>
-      <c r="U214" s="10"/>
-      <c r="V214" s="10"/>
-      <c r="W214" s="10"/>
-      <c r="X214" s="10"/>
-      <c r="Y214" s="10"/>
-      <c r="Z214" s="10"/>
-      <c r="AA214" s="10"/>
-      <c r="AB214" s="10"/>
-      <c r="AC214" s="10"/>
-      <c r="AD214" s="10"/>
-      <c r="AE214" s="10"/>
-    </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="10"/>
-      <c r="B215" s="10"/>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
-      <c r="H215" s="10"/>
-      <c r="I215" s="10"/>
-      <c r="J215" s="10"/>
-      <c r="K215" s="10"/>
-      <c r="L215" s="10"/>
-      <c r="M215" s="10"/>
-      <c r="N215" s="10"/>
-      <c r="O215" s="10"/>
-      <c r="P215" s="10"/>
-      <c r="Q215" s="10"/>
-      <c r="R215" s="10"/>
-      <c r="S215" s="10"/>
-      <c r="T215" s="10"/>
-      <c r="U215" s="10"/>
-      <c r="V215" s="10"/>
-      <c r="W215" s="10"/>
-      <c r="X215" s="10"/>
-      <c r="Y215" s="10"/>
-      <c r="Z215" s="10"/>
-      <c r="AA215" s="10"/>
-      <c r="AB215" s="10"/>
-      <c r="AC215" s="10"/>
-      <c r="AD215" s="10"/>
-      <c r="AE215" s="10"/>
-    </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="10"/>
-      <c r="B216" s="10"/>
-      <c r="C216" s="10"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
-      <c r="H216" s="10"/>
-      <c r="I216" s="10"/>
-      <c r="J216" s="10"/>
-      <c r="K216" s="10"/>
-      <c r="L216" s="10"/>
-      <c r="M216" s="10"/>
-      <c r="N216" s="10"/>
-      <c r="O216" s="10"/>
-      <c r="P216" s="10"/>
-      <c r="Q216" s="10"/>
-      <c r="R216" s="10"/>
-      <c r="S216" s="10"/>
-      <c r="T216" s="10"/>
-      <c r="U216" s="10"/>
-      <c r="V216" s="10"/>
-      <c r="W216" s="10"/>
-      <c r="X216" s="10"/>
-      <c r="Y216" s="10"/>
-      <c r="Z216" s="10"/>
-      <c r="AA216" s="10"/>
-      <c r="AB216" s="10"/>
-      <c r="AC216" s="10"/>
-      <c r="AD216" s="10"/>
-      <c r="AE216" s="10"/>
-    </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="10"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
-      <c r="H217" s="10"/>
-      <c r="I217" s="10"/>
-      <c r="J217" s="10"/>
-      <c r="K217" s="10"/>
-      <c r="L217" s="10"/>
-      <c r="M217" s="10"/>
-      <c r="N217" s="10"/>
-      <c r="O217" s="10"/>
-      <c r="P217" s="10"/>
-      <c r="Q217" s="10"/>
-      <c r="R217" s="10"/>
-      <c r="S217" s="10"/>
-      <c r="T217" s="10"/>
-      <c r="U217" s="10"/>
-      <c r="V217" s="10"/>
-      <c r="W217" s="10"/>
-      <c r="X217" s="10"/>
-      <c r="Y217" s="10"/>
-      <c r="Z217" s="10"/>
-      <c r="AA217" s="10"/>
-      <c r="AB217" s="10"/>
-      <c r="AC217" s="10"/>
-      <c r="AD217" s="10"/>
-      <c r="AE217" s="10"/>
-    </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="10"/>
-      <c r="B218" s="10"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
-      <c r="H218" s="10"/>
-      <c r="I218" s="10"/>
-      <c r="J218" s="10"/>
-      <c r="K218" s="10"/>
-      <c r="L218" s="10"/>
-      <c r="M218" s="10"/>
-      <c r="N218" s="10"/>
-      <c r="O218" s="10"/>
-      <c r="P218" s="10"/>
-      <c r="Q218" s="10"/>
-      <c r="R218" s="10"/>
-      <c r="S218" s="10"/>
-      <c r="T218" s="10"/>
-      <c r="U218" s="10"/>
-      <c r="V218" s="10"/>
-      <c r="W218" s="10"/>
-      <c r="X218" s="10"/>
-      <c r="Y218" s="10"/>
-      <c r="Z218" s="10"/>
-      <c r="AA218" s="10"/>
-      <c r="AB218" s="10"/>
-      <c r="AC218" s="10"/>
-      <c r="AD218" s="10"/>
-      <c r="AE218" s="10"/>
-    </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="10"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
-      <c r="H219" s="10"/>
-      <c r="I219" s="10"/>
-      <c r="J219" s="10"/>
-      <c r="K219" s="10"/>
-      <c r="L219" s="10"/>
-      <c r="M219" s="10"/>
-      <c r="N219" s="10"/>
-      <c r="O219" s="10"/>
-      <c r="P219" s="10"/>
-      <c r="Q219" s="10"/>
-      <c r="R219" s="10"/>
-      <c r="S219" s="10"/>
-      <c r="T219" s="10"/>
-      <c r="U219" s="10"/>
-      <c r="V219" s="10"/>
-      <c r="W219" s="10"/>
-      <c r="X219" s="10"/>
-      <c r="Y219" s="10"/>
-      <c r="Z219" s="10"/>
-      <c r="AA219" s="10"/>
-      <c r="AB219" s="10"/>
-      <c r="AC219" s="10"/>
-      <c r="AD219" s="10"/>
-      <c r="AE219" s="10"/>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="10"/>
-      <c r="B220" s="10"/>
-      <c r="C220" s="10"/>
-      <c r="D220" s="10"/>
-      <c r="E220" s="10"/>
-      <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
-      <c r="H220" s="10"/>
-      <c r="I220" s="10"/>
-      <c r="J220" s="10"/>
-      <c r="K220" s="10"/>
-      <c r="L220" s="10"/>
-      <c r="M220" s="10"/>
-      <c r="N220" s="10"/>
-      <c r="O220" s="10"/>
-      <c r="P220" s="10"/>
-      <c r="Q220" s="10"/>
-      <c r="R220" s="10"/>
-      <c r="S220" s="10"/>
-      <c r="T220" s="10"/>
-      <c r="U220" s="10"/>
-      <c r="V220" s="10"/>
-      <c r="W220" s="10"/>
-      <c r="X220" s="10"/>
-      <c r="Y220" s="10"/>
-      <c r="Z220" s="10"/>
-      <c r="AA220" s="10"/>
-      <c r="AB220" s="10"/>
-      <c r="AC220" s="10"/>
-      <c r="AD220" s="10"/>
-      <c r="AE220" s="10"/>
-    </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="10"/>
-      <c r="B221" s="10"/>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
-      <c r="E221" s="10"/>
-      <c r="F221" s="10"/>
-      <c r="G221" s="10"/>
-      <c r="H221" s="10"/>
-      <c r="I221" s="10"/>
-      <c r="J221" s="10"/>
-      <c r="K221" s="10"/>
-      <c r="L221" s="10"/>
-      <c r="M221" s="10"/>
-      <c r="N221" s="10"/>
-      <c r="O221" s="10"/>
-      <c r="P221" s="10"/>
-      <c r="Q221" s="10"/>
-      <c r="R221" s="10"/>
-      <c r="S221" s="10"/>
-      <c r="T221" s="10"/>
-      <c r="U221" s="10"/>
-      <c r="V221" s="10"/>
-      <c r="W221" s="10"/>
-      <c r="X221" s="10"/>
-      <c r="Y221" s="10"/>
-      <c r="Z221" s="10"/>
-      <c r="AA221" s="10"/>
-      <c r="AB221" s="10"/>
-      <c r="AC221" s="10"/>
-      <c r="AD221" s="10"/>
-      <c r="AE221" s="10"/>
-    </row>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
